--- a/1_Data Cleaning/7_gd.xlsx
+++ b/1_Data Cleaning/7_gd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esmaeil\CeliacProject\CeliacProject\1_Data Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6F494-36C6-4D82-BB7A-F22DE22EC3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B203F91-9F24-4685-B483-13D328A2E5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
